--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.50102447020778</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H2">
-        <v>2.50102447020778</v>
+        <v>7.625881</v>
       </c>
       <c r="I2">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J2">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N2">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O2">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P2">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q2">
-        <v>36.92425270680504</v>
+        <v>37.5595754467169</v>
       </c>
       <c r="R2">
-        <v>36.92425270680504</v>
+        <v>338.036179020452</v>
       </c>
       <c r="S2">
-        <v>0.01620354692453418</v>
+        <v>0.01605281436185161</v>
       </c>
       <c r="T2">
-        <v>0.01620354692453418</v>
+        <v>0.0160528143618516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.50102447020778</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H3">
-        <v>2.50102447020778</v>
+        <v>7.625881</v>
       </c>
       <c r="I3">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J3">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N3">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O3">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P3">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q3">
-        <v>26.27025412910709</v>
+        <v>26.80461584055333</v>
       </c>
       <c r="R3">
-        <v>26.27025412910709</v>
+        <v>241.24154256498</v>
       </c>
       <c r="S3">
-        <v>0.01152823047985409</v>
+        <v>0.01145618705780024</v>
       </c>
       <c r="T3">
-        <v>0.01152823047985409</v>
+        <v>0.01145618705780023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.50102447020778</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H4">
-        <v>2.50102447020778</v>
+        <v>7.625881</v>
       </c>
       <c r="I4">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J4">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N4">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O4">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P4">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q4">
-        <v>155.2009498892693</v>
+        <v>158.8341372323</v>
       </c>
       <c r="R4">
-        <v>155.2009498892693</v>
+        <v>1429.5072350907</v>
       </c>
       <c r="S4">
-        <v>0.06810715694727065</v>
+        <v>0.0678850836035701</v>
       </c>
       <c r="T4">
-        <v>0.06810715694727065</v>
+        <v>0.06788508360357005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.50102447020778</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H5">
-        <v>2.50102447020778</v>
+        <v>7.625881</v>
       </c>
       <c r="I5">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J5">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N5">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O5">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P5">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q5">
-        <v>233.8632537917826</v>
+        <v>240.0164998581372</v>
       </c>
       <c r="R5">
-        <v>233.8632537917826</v>
+        <v>2160.148498723235</v>
       </c>
       <c r="S5">
-        <v>0.1026267000399176</v>
+        <v>0.1025821051004677</v>
       </c>
       <c r="T5">
-        <v>0.1026267000399176</v>
+        <v>0.1025821051004677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.50102447020778</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H6">
-        <v>2.50102447020778</v>
+        <v>7.625881</v>
       </c>
       <c r="I6">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J6">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N6">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O6">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P6">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q6">
-        <v>4.335623812056895</v>
+        <v>5.044071201841112</v>
       </c>
       <c r="R6">
-        <v>4.335623812056895</v>
+        <v>45.39664081657</v>
       </c>
       <c r="S6">
-        <v>0.001902610851562185</v>
+        <v>0.002155816131254882</v>
       </c>
       <c r="T6">
-        <v>0.001902610851562185</v>
+        <v>0.002155816131254882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.51083208916359</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H7">
-        <v>2.51083208916359</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I7">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="J7">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N7">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O7">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P7">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q7">
-        <v>37.06904897133192</v>
+        <v>37.21396876742357</v>
       </c>
       <c r="R7">
-        <v>37.06904897133192</v>
+        <v>334.9257189068121</v>
       </c>
       <c r="S7">
-        <v>0.01626708817167569</v>
+        <v>0.01590510343064627</v>
       </c>
       <c r="T7">
-        <v>0.01626708817167569</v>
+        <v>0.01590510343064626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.51083208916359</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H8">
-        <v>2.51083208916359</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I8">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="J8">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N8">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O8">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P8">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q8">
-        <v>26.37327137081731</v>
+        <v>26.55797156515333</v>
       </c>
       <c r="R8">
-        <v>26.37327137081731</v>
+        <v>239.02174408638</v>
       </c>
       <c r="S8">
-        <v>0.0115734377511655</v>
+        <v>0.01135077226758179</v>
       </c>
       <c r="T8">
-        <v>0.0115734377511655</v>
+        <v>0.01135077226758179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.51083208916359</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H9">
-        <v>2.51083208916359</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I9">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="J9">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N9">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O9">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P9">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q9">
-        <v>155.8095611988449</v>
+        <v>157.3726154213</v>
       </c>
       <c r="R9">
-        <v>155.8095611988449</v>
+        <v>1416.3535387917</v>
       </c>
       <c r="S9">
-        <v>0.06837423511921949</v>
+        <v>0.06726043494770167</v>
       </c>
       <c r="T9">
-        <v>0.06837423511921949</v>
+        <v>0.06726043494770165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.51083208916359</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H10">
-        <v>2.51083208916359</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I10">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="J10">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N10">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O10">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P10">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q10">
-        <v>234.7803346553557</v>
+        <v>237.8079736832539</v>
       </c>
       <c r="R10">
-        <v>234.7803346553557</v>
+        <v>2140.271763149285</v>
       </c>
       <c r="S10">
-        <v>0.1030291445504266</v>
+        <v>0.1016381897266375</v>
       </c>
       <c r="T10">
-        <v>0.1030291445504266</v>
+        <v>0.1016381897266374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.51083208916359</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H11">
-        <v>2.51083208916359</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I11">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="J11">
-        <v>0.2011539774195319</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N11">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O11">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P11">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q11">
-        <v>4.352625703398189</v>
+        <v>4.997657879074445</v>
       </c>
       <c r="R11">
-        <v>4.352625703398189</v>
+        <v>44.97892091167001</v>
       </c>
       <c r="S11">
-        <v>0.001910071827044669</v>
+        <v>0.00213597926021924</v>
       </c>
       <c r="T11">
-        <v>0.001910071827044669</v>
+        <v>0.002135979260219239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.70654867783517</v>
+        <v>2.780877333333333</v>
       </c>
       <c r="H12">
-        <v>2.70654867783517</v>
+        <v>8.342632</v>
       </c>
       <c r="I12">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="J12">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N12">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O12">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P12">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q12">
-        <v>39.95854040378593</v>
+        <v>41.08977258210489</v>
       </c>
       <c r="R12">
-        <v>39.95854040378593</v>
+        <v>369.807953238944</v>
       </c>
       <c r="S12">
-        <v>0.01753508973112714</v>
+        <v>0.01756160668980316</v>
       </c>
       <c r="T12">
-        <v>0.01753508973112714</v>
+        <v>0.01756160668980315</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.70654867783517</v>
+        <v>2.780877333333333</v>
       </c>
       <c r="H13">
-        <v>2.70654867783517</v>
+        <v>8.342632</v>
       </c>
       <c r="I13">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="J13">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N13">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O13">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P13">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q13">
-        <v>28.42903875051719</v>
+        <v>29.32396215717333</v>
       </c>
       <c r="R13">
-        <v>28.42903875051719</v>
+        <v>263.91565941456</v>
       </c>
       <c r="S13">
-        <v>0.01247557444347436</v>
+        <v>0.01253294573392767</v>
       </c>
       <c r="T13">
-        <v>0.01247557444347436</v>
+        <v>0.01253294573392767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70654867783517</v>
+        <v>2.780877333333333</v>
       </c>
       <c r="H14">
-        <v>2.70654867783517</v>
+        <v>8.342632</v>
       </c>
       <c r="I14">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="J14">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N14">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O14">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P14">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q14">
-        <v>167.9547444358538</v>
+        <v>173.7628420856</v>
       </c>
       <c r="R14">
-        <v>167.9547444358538</v>
+        <v>1563.8655787704</v>
       </c>
       <c r="S14">
-        <v>0.07370393124199764</v>
+        <v>0.07426555315953909</v>
       </c>
       <c r="T14">
-        <v>0.07370393124199764</v>
+        <v>0.07426555315953906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70654867783517</v>
+        <v>2.780877333333333</v>
       </c>
       <c r="H15">
-        <v>2.70654867783517</v>
+        <v>8.342632</v>
       </c>
       <c r="I15">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="J15">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N15">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O15">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P15">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q15">
-        <v>253.0812024769173</v>
+        <v>262.5754758361022</v>
       </c>
       <c r="R15">
-        <v>253.0812024769173</v>
+        <v>2363.17928252492</v>
       </c>
       <c r="S15">
-        <v>0.1110601525944084</v>
+        <v>0.1122237224313525</v>
       </c>
       <c r="T15">
-        <v>0.1110601525944084</v>
+        <v>0.1122237224313525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70654867783517</v>
+        <v>2.780877333333333</v>
       </c>
       <c r="H16">
-        <v>2.70654867783517</v>
+        <v>8.342632</v>
       </c>
       <c r="I16">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="J16">
-        <v>0.2168337078277033</v>
+        <v>0.2189422677336166</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N16">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O16">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P16">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q16">
-        <v>4.691908070430988</v>
+        <v>5.518159779671111</v>
       </c>
       <c r="R16">
-        <v>4.691908070430988</v>
+        <v>49.66343801704001</v>
       </c>
       <c r="S16">
-        <v>0.002058959816695704</v>
+        <v>0.002358439718994197</v>
       </c>
       <c r="T16">
-        <v>0.002058959816695704</v>
+        <v>0.002358439718994195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.57554279431429</v>
+        <v>3.622274</v>
       </c>
       <c r="H17">
-        <v>3.57554279431429</v>
+        <v>10.866822</v>
       </c>
       <c r="I17">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199669</v>
       </c>
       <c r="J17">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199668</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N17">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O17">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P17">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q17">
-        <v>52.78806635997783</v>
+        <v>53.52210725226934</v>
       </c>
       <c r="R17">
-        <v>52.78806635997783</v>
+        <v>481.698965270424</v>
       </c>
       <c r="S17">
-        <v>0.02316509739848265</v>
+        <v>0.02287513747844806</v>
       </c>
       <c r="T17">
-        <v>0.02316509739848265</v>
+        <v>0.02287513747844805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.57554279431429</v>
+        <v>3.622274</v>
       </c>
       <c r="H18">
-        <v>3.57554279431429</v>
+        <v>10.866822</v>
       </c>
       <c r="I18">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199669</v>
       </c>
       <c r="J18">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199668</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N18">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O18">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P18">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q18">
-        <v>37.55677682287152</v>
+        <v>38.19637221164</v>
       </c>
       <c r="R18">
-        <v>37.55677682287152</v>
+        <v>343.76734990476</v>
       </c>
       <c r="S18">
-        <v>0.01648111880329272</v>
+        <v>0.01632497878682068</v>
       </c>
       <c r="T18">
-        <v>0.01648111880329272</v>
+        <v>0.01632497878682067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.57554279431429</v>
+        <v>3.622274</v>
       </c>
       <c r="H19">
-        <v>3.57554279431429</v>
+        <v>10.866822</v>
       </c>
       <c r="I19">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199669</v>
       </c>
       <c r="J19">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199668</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N19">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O19">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P19">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q19">
-        <v>221.8801313852031</v>
+        <v>226.3374286626</v>
       </c>
       <c r="R19">
-        <v>221.8801313852031</v>
+        <v>2037.0368579634</v>
       </c>
       <c r="S19">
-        <v>0.09736812140978969</v>
+        <v>0.09673572403963748</v>
       </c>
       <c r="T19">
-        <v>0.09736812140978969</v>
+        <v>0.09673572403963743</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.57554279431429</v>
+        <v>3.622274</v>
       </c>
       <c r="H20">
-        <v>3.57554279431429</v>
+        <v>10.866822</v>
       </c>
       <c r="I20">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199669</v>
       </c>
       <c r="J20">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199668</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N20">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O20">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P20">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q20">
-        <v>334.338220961362</v>
+        <v>342.0216734330633</v>
       </c>
       <c r="R20">
-        <v>334.338220961362</v>
+        <v>3078.195060897569</v>
       </c>
       <c r="S20">
-        <v>0.1467183397056072</v>
+        <v>0.1461787138446135</v>
       </c>
       <c r="T20">
-        <v>0.1467183397056072</v>
+        <v>0.1461787138446134</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.57554279431429</v>
+        <v>3.622274</v>
       </c>
       <c r="H21">
-        <v>3.57554279431429</v>
+        <v>10.866822</v>
       </c>
       <c r="I21">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199669</v>
       </c>
       <c r="J21">
-        <v>0.2864527092887596</v>
+        <v>0.2851865756199668</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N21">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O21">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P21">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q21">
-        <v>6.198343384768878</v>
+        <v>7.187762817926666</v>
       </c>
       <c r="R21">
-        <v>6.198343384768878</v>
+        <v>64.68986536134</v>
       </c>
       <c r="S21">
-        <v>0.002720031971587299</v>
+        <v>0.00307202147044721</v>
       </c>
       <c r="T21">
-        <v>0.002720031971587299</v>
+        <v>0.003072021470447209</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.18819187629185</v>
+        <v>1.237736333333333</v>
       </c>
       <c r="H22">
-        <v>1.18819187629185</v>
+        <v>3.713209</v>
       </c>
       <c r="I22">
-        <v>0.09519136022086648</v>
+        <v>0.09744867075868562</v>
       </c>
       <c r="J22">
-        <v>0.09519136022086648</v>
+        <v>0.0974486707586856</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N22">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O22">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P22">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q22">
-        <v>17.54205031857534</v>
+        <v>18.28858247131422</v>
       </c>
       <c r="R22">
-        <v>17.54205031857534</v>
+        <v>164.597242241828</v>
       </c>
       <c r="S22">
-        <v>0.00769801457450187</v>
+        <v>0.007816467994157875</v>
       </c>
       <c r="T22">
-        <v>0.00769801457450187</v>
+        <v>0.007816467994157871</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.18819187629185</v>
+        <v>1.237736333333333</v>
       </c>
       <c r="H23">
-        <v>1.18819187629185</v>
+        <v>3.713209</v>
       </c>
       <c r="I23">
-        <v>0.09519136022086648</v>
+        <v>0.09744867075868562</v>
       </c>
       <c r="J23">
-        <v>0.09519136022086648</v>
+        <v>0.0974486707586856</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N23">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O23">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P23">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q23">
-        <v>12.48052664664023</v>
+        <v>13.05175635191333</v>
       </c>
       <c r="R23">
-        <v>12.48052664664023</v>
+        <v>117.46580716722</v>
       </c>
       <c r="S23">
-        <v>0.005476855571526951</v>
+        <v>0.005578269171615366</v>
       </c>
       <c r="T23">
-        <v>0.005476855571526951</v>
+        <v>0.005578269171615364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.18819187629185</v>
+        <v>1.237736333333333</v>
       </c>
       <c r="H24">
-        <v>1.18819187629185</v>
+        <v>3.713209</v>
       </c>
       <c r="I24">
-        <v>0.09519136022086648</v>
+        <v>0.09744867075868562</v>
       </c>
       <c r="J24">
-        <v>0.09519136022086648</v>
+        <v>0.0974486707586856</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N24">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O24">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P24">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q24">
-        <v>73.73318815864606</v>
+        <v>77.33983101470001</v>
       </c>
       <c r="R24">
-        <v>73.73318815864606</v>
+        <v>696.0584791323</v>
       </c>
       <c r="S24">
-        <v>0.03235648893725458</v>
+        <v>0.03305473864626643</v>
       </c>
       <c r="T24">
-        <v>0.03235648893725458</v>
+        <v>0.03305473864626642</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.18819187629185</v>
+        <v>1.237736333333333</v>
       </c>
       <c r="H25">
-        <v>1.18819187629185</v>
+        <v>3.713209</v>
       </c>
       <c r="I25">
-        <v>0.09519136022086648</v>
+        <v>0.09744867075868562</v>
       </c>
       <c r="J25">
-        <v>0.09519136022086648</v>
+        <v>0.0974486707586856</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N25">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O25">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P25">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q25">
-        <v>111.1042381346593</v>
+        <v>116.8693069589905</v>
       </c>
       <c r="R25">
-        <v>111.1042381346593</v>
+        <v>1051.823762630915</v>
       </c>
       <c r="S25">
-        <v>0.04875610484048563</v>
+        <v>0.04994948070891778</v>
       </c>
       <c r="T25">
-        <v>0.04875610484048563</v>
+        <v>0.04994948070891775</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.18819187629185</v>
+        <v>1.237736333333333</v>
       </c>
       <c r="H26">
-        <v>1.18819187629185</v>
+        <v>3.713209</v>
       </c>
       <c r="I26">
-        <v>0.09519136022086648</v>
+        <v>0.09744867075868562</v>
       </c>
       <c r="J26">
-        <v>0.09519136022086648</v>
+        <v>0.0974486707586856</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N26">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O26">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P26">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q26">
-        <v>2.059777124737818</v>
+        <v>2.456069086747778</v>
       </c>
       <c r="R26">
-        <v>2.059777124737818</v>
+        <v>22.10462178073</v>
       </c>
       <c r="S26">
-        <v>0.0009038962970974435</v>
+        <v>0.00104971423772818</v>
       </c>
       <c r="T26">
-        <v>0.0009038962970974435</v>
+        <v>0.001049714237728179</v>
       </c>
     </row>
   </sheetData>
